--- a/Timesheets/cbhe_timesheet_2020_JavierSolano.xlsx
+++ b/Timesheets/cbhe_timesheet_2020_JavierSolano.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$128</definedName>
     <definedName function="false" hidden="false" name="Days" vbProcedure="false">Sheet2!$C$2:$C$21</definedName>
     <definedName function="false" hidden="false" name="Month" vbProcedure="false">Sheet2!$B$2:$B$13</definedName>
     <definedName function="false" hidden="false" name="StaffCat" vbProcedure="false">Sheet2!$D$2:$D$6</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="146">
   <si>
     <t xml:space="preserve">PROJECT TIMESHEET</t>
   </si>
@@ -155,9 +155,279 @@
     <t xml:space="preserve">Citizen Science meeting: 27/04</t>
   </si>
   <si>
+    <t xml:space="preserve">working WP5: 29/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reunion ciclo de seminarios virtuales: 30/04</t>
+  </si>
+  <si>
     <t xml:space="preserve">May</t>
   </si>
   <si>
+    <t xml:space="preserve">working WP5 – mision, vision, valores,… : 01/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics Instrumentation Meeting :   06/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   08/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizen Science meeting: 11/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEP webinars: 22/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   22/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEP webinars: 28/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working WP1 – syllabus: 28/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics WG meeting: 01/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   05/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminarios de presentacion: 09/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working WP1 – syllabus: 12/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   19/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   24/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissemination/Exploitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1er Web-seminario de presentacion: 26/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   01/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2do Web-seminario de Sist Complejos: 03/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   08/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3er Web-seminario de HEP: 10/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   15/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4to Web-seminario de Ciencia de Datos: 17/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working WP5: 23/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5to Web-seminario de Instrumentacion Cientifica: 24/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   29/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6to Web-seminario de Desarrollo Profesional: 31/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   14/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   21/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syllabus meeting  : 27/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   28/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   04/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   11/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   18/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk about LA-CoNGA in XIX Meeting of Physics : 25/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   02/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   09/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   16/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   23/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   30/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   06/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   14/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   20/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   27/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion bilateral UNMSM- LA-CoNGA: 03/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :   04/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  11/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  18/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  08/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  15/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentacion ciclo cursos :  18/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  19/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  20/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  20/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  21/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  22/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  25/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  25/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  26/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  27/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  27/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  28/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  29/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co-tutoria curso Datos :  29/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  01/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  01/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  02/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  03/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  03/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  04/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  05/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co-tutoria curso Datos :  05/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  08/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  08/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  09/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  10/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  10/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Teoria :  11/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium meeting :  12/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co-tutoria curso Datos :  12/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia curso Instrumentacion :  15/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia/co-tutoria curso Datos :  15/02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total days:</t>
   </si>
   <si>
@@ -194,34 +464,10 @@
     <t xml:space="preserve">Administrative</t>
   </si>
   <si>
-    <t xml:space="preserve">Dissemination/Exploitation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December</t>
   </si>
 </sst>
 </file>
@@ -526,15 +772,94 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631080</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>338400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="519480" y="22413960"/>
+          <a:ext cx="1416240" cy="551880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196200</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1612440</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>379080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5110200" y="22454640"/>
+          <a:ext cx="1416240" cy="551880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:F73"/>
+  <dimension ref="B1:F123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F127" activeCellId="0" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,7 +867,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="104.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="8" style="1" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="19.84"/>
@@ -937,314 +1262,1416 @@
         <v>2020</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="n">
         <v>2020</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="n">
         <v>2020</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" s="13" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15" t="n">
-        <f aca="true">SUM(D13:OFFSET(D67,-1,0))</f>
+      <c r="C63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" s="13" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" s="13" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="F73" s="1" t="s">
-        <v>46</v>
+      <c r="D78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="12"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="12"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
+    </row>
+    <row r="118" s="13" customFormat="true" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15" t="n">
+        <f aca="true">SUM(D13:OFFSET(D118,-1,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" s="13" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" s="13" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="F123" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true" selectLockedCells="true"/>
   <mergeCells count="18">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
@@ -1261,28 +2688,28 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B123:D123"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D10:F10" type="list">
       <formula1>StaffCat</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B13:B66" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B13:B117" type="list">
       <formula1>Year</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C13:C66" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C13:C117" type="list">
       <formula1>Month</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D13:D66" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D13:D117" type="list">
       <formula1>Days</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E13:E66" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E13:E117" type="list">
       <formula1>WorkP</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1294,6 +2721,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1326,13 +2754,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>20</v>
@@ -1380,10 +2808,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,16 +2836,16 @@
         <v>2022</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="22" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +2853,7 @@
         <v>2023</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="22" t="n">
         <v>6</v>
@@ -1436,7 +2864,7 @@
         <v>2024</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="22" t="n">
         <v>7</v>
@@ -1447,7 +2875,7 @@
         <v>2025</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C9" s="22" t="n">
         <v>8</v>
@@ -1455,7 +2883,7 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C10" s="22" t="n">
         <v>9</v>
@@ -1463,7 +2891,7 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C11" s="22" t="n">
         <v>10</v>
@@ -1471,7 +2899,7 @@
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C12" s="22" t="n">
         <v>11</v>
@@ -1479,7 +2907,7 @@
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C13" s="22" t="n">
         <v>12</v>
